--- a/Code/Results/Cases/Case_1_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9916039057400103</v>
+        <v>1.019615537826321</v>
       </c>
       <c r="D2">
-        <v>1.025022531987173</v>
+        <v>1.030244161831632</v>
       </c>
       <c r="E2">
-        <v>0.9992341132956081</v>
+        <v>1.02073141874446</v>
       </c>
       <c r="F2">
-        <v>1.000257405534227</v>
+        <v>1.031869944366426</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041244580753338</v>
+        <v>1.032330490091489</v>
       </c>
       <c r="J2">
-        <v>1.014038675790143</v>
+        <v>1.024817299578962</v>
       </c>
       <c r="K2">
-        <v>1.036143931729464</v>
+        <v>1.033055735294763</v>
       </c>
       <c r="L2">
-        <v>1.010704128458551</v>
+        <v>1.023570837009088</v>
       </c>
       <c r="M2">
-        <v>1.01171315545274</v>
+        <v>1.034676814831682</v>
       </c>
       <c r="N2">
-        <v>1.008666088354778</v>
+        <v>1.012352941027119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9953870452257848</v>
+        <v>1.020418741547745</v>
       </c>
       <c r="D3">
-        <v>1.027107361204859</v>
+        <v>1.030694025018843</v>
       </c>
       <c r="E3">
-        <v>1.002191858413263</v>
+        <v>1.021408986067245</v>
       </c>
       <c r="F3">
-        <v>1.00489034064845</v>
+        <v>1.032926554786676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042104823731035</v>
+        <v>1.03246672452827</v>
       </c>
       <c r="J3">
-        <v>1.016004258889106</v>
+        <v>1.025258099855024</v>
       </c>
       <c r="K3">
-        <v>1.037404759960725</v>
+        <v>1.033314876543066</v>
       </c>
       <c r="L3">
-        <v>1.012796770614005</v>
+        <v>1.024055059310531</v>
       </c>
       <c r="M3">
-        <v>1.015461028736623</v>
+        <v>1.035541415050812</v>
       </c>
       <c r="N3">
-        <v>1.009328217787933</v>
+        <v>1.012500233965003</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9977899938291702</v>
+        <v>1.020939073971036</v>
       </c>
       <c r="D4">
-        <v>1.02843517382303</v>
+        <v>1.030985466045683</v>
       </c>
       <c r="E4">
-        <v>1.004076525211968</v>
+        <v>1.021848334882879</v>
       </c>
       <c r="F4">
-        <v>1.007833839768209</v>
+        <v>1.033611166214083</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042642888861912</v>
+        <v>1.032553921726561</v>
       </c>
       <c r="J4">
-        <v>1.017250401235797</v>
+        <v>1.025543283017283</v>
       </c>
       <c r="K4">
-        <v>1.038202109282493</v>
+        <v>1.033482178482455</v>
       </c>
       <c r="L4">
-        <v>1.014125997901961</v>
+        <v>1.024368622493415</v>
       </c>
       <c r="M4">
-        <v>1.01783862784106</v>
+        <v>1.036101187076476</v>
       </c>
       <c r="N4">
-        <v>1.009747836783226</v>
+        <v>1.012595486470674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9987897573640148</v>
+        <v>1.021157965242964</v>
       </c>
       <c r="D5">
-        <v>1.028988412934889</v>
+        <v>1.031108069715108</v>
       </c>
       <c r="E5">
-        <v>1.004862055930982</v>
+        <v>1.022033255049133</v>
       </c>
       <c r="F5">
-        <v>1.009058735647932</v>
+        <v>1.033899194559104</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042864720256708</v>
+        <v>1.03259035000628</v>
       </c>
       <c r="J5">
-        <v>1.017768283285297</v>
+        <v>1.025663162364387</v>
       </c>
       <c r="K5">
-        <v>1.038532967905951</v>
+        <v>1.033552420173679</v>
       </c>
       <c r="L5">
-        <v>1.014679015444421</v>
+        <v>1.024500500423476</v>
       </c>
       <c r="M5">
-        <v>1.018827156137601</v>
+        <v>1.036336590285594</v>
       </c>
       <c r="N5">
-        <v>1.009922184984771</v>
+        <v>1.012635516834974</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9989570195809085</v>
+        <v>1.021194726422295</v>
       </c>
       <c r="D6">
-        <v>1.029081015545392</v>
+        <v>1.031128660158618</v>
       </c>
       <c r="E6">
-        <v>1.004993558040138</v>
+        <v>1.022064316687998</v>
       </c>
       <c r="F6">
-        <v>1.00926367783471</v>
+        <v>1.033947568520677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042901712494723</v>
+        <v>1.032596453002365</v>
       </c>
       <c r="J6">
-        <v>1.017854890904897</v>
+        <v>1.025683289918909</v>
       </c>
       <c r="K6">
-        <v>1.038588267865619</v>
+        <v>1.033564208632449</v>
       </c>
       <c r="L6">
-        <v>1.014771534542184</v>
+        <v>1.024522646554056</v>
       </c>
       <c r="M6">
-        <v>1.018992498753338</v>
+        <v>1.036376119890786</v>
       </c>
       <c r="N6">
-        <v>1.009951339523914</v>
+        <v>1.01264223728868</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.997803393290086</v>
+        <v>1.020941998244901</v>
       </c>
       <c r="D7">
-        <v>1.028442585636291</v>
+        <v>1.030987103962531</v>
       </c>
       <c r="E7">
-        <v>1.004087047898594</v>
+        <v>1.021850804941056</v>
       </c>
       <c r="F7">
-        <v>1.007850255619111</v>
+        <v>1.033615014008843</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042645870063041</v>
+        <v>1.032554409385304</v>
       </c>
       <c r="J7">
-        <v>1.017257344552697</v>
+        <v>1.025544884898156</v>
       </c>
       <c r="K7">
-        <v>1.038206547208758</v>
+        <v>1.033483117418458</v>
       </c>
       <c r="L7">
-        <v>1.014133409891125</v>
+        <v>1.024370384434417</v>
       </c>
       <c r="M7">
-        <v>1.017851879413929</v>
+        <v>1.036104332252091</v>
       </c>
       <c r="N7">
-        <v>1.009750174457144</v>
+        <v>1.01259602141306</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9928919591399487</v>
+        <v>1.019886857904411</v>
       </c>
       <c r="D8">
-        <v>1.025731566134218</v>
+        <v>1.030396121762669</v>
       </c>
       <c r="E8">
-        <v>1.000239867971243</v>
+        <v>1.020960214798792</v>
       </c>
       <c r="F8">
-        <v>1.00183465450355</v>
+        <v>1.032226840943467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041539194781078</v>
+        <v>1.032376728626752</v>
       </c>
       <c r="J8">
-        <v>1.014708379163788</v>
+        <v>1.024966278565028</v>
       </c>
       <c r="K8">
-        <v>1.036573912316812</v>
+        <v>1.033143391252603</v>
       </c>
       <c r="L8">
-        <v>1.011416591072663</v>
+        <v>1.023734431974528</v>
       </c>
       <c r="M8">
-        <v>1.012989831448124</v>
+        <v>1.034968944074454</v>
       </c>
       <c r="N8">
-        <v>1.008891717412291</v>
+        <v>1.012402730686257</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9838769082789036</v>
+        <v>1.018032274231474</v>
       </c>
       <c r="D9">
-        <v>1.020787029076909</v>
+        <v>1.029357491519772</v>
       </c>
       <c r="E9">
-        <v>0.9932273979464747</v>
+        <v>1.019397983538111</v>
       </c>
       <c r="F9">
-        <v>0.9907969067177823</v>
+        <v>1.029787748963793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039443344861187</v>
+        <v>1.032056342581662</v>
       </c>
       <c r="J9">
-        <v>1.0100121493395</v>
+        <v>1.023946411150804</v>
       </c>
       <c r="K9">
-        <v>1.033551619395753</v>
+        <v>1.032541891369779</v>
       </c>
       <c r="L9">
-        <v>1.00643131998158</v>
+        <v>1.022615687678885</v>
       </c>
       <c r="M9">
-        <v>1.004041083544689</v>
+        <v>1.032970725972796</v>
       </c>
       <c r="N9">
-        <v>1.007308944583057</v>
+        <v>1.01206171802566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9776010991424663</v>
+        <v>1.016799142070423</v>
       </c>
       <c r="D10">
-        <v>1.017370914685335</v>
+        <v>1.028667031705742</v>
       </c>
       <c r="E10">
-        <v>0.9883813706836132</v>
+        <v>1.018361373525942</v>
       </c>
       <c r="F10">
-        <v>0.9831124543612156</v>
+        <v>1.028166488002801</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037942898565439</v>
+        <v>1.031837889509978</v>
       </c>
       <c r="J10">
-        <v>1.006732479883731</v>
+        <v>1.0232663705159</v>
       </c>
       <c r="K10">
-        <v>1.031433458521235</v>
+        <v>1.032139036343794</v>
       </c>
       <c r="L10">
-        <v>1.00296362034728</v>
+        <v>1.021871199677545</v>
       </c>
       <c r="M10">
-        <v>0.9977934631216361</v>
+        <v>1.03164031026892</v>
       </c>
       <c r="N10">
-        <v>1.006202980553719</v>
+        <v>1.011834125335449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9748149619535627</v>
+        <v>1.016265973901493</v>
       </c>
       <c r="D11">
-        <v>1.015861579338006</v>
+        <v>1.028368542739083</v>
       </c>
       <c r="E11">
-        <v>0.9862390275027126</v>
+        <v>1.017913688436188</v>
       </c>
       <c r="F11">
-        <v>0.9797000298305141</v>
+        <v>1.027465615542395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037267453645303</v>
+        <v>1.031742151822812</v>
       </c>
       <c r="J11">
-        <v>1.005274342570942</v>
+        <v>1.022971888560029</v>
       </c>
       <c r="K11">
-        <v>1.030490443025047</v>
+        <v>1.031964169866265</v>
       </c>
       <c r="L11">
-        <v>1.001425206790082</v>
+        <v>1.021549161954295</v>
       </c>
       <c r="M11">
-        <v>0.9950152037154881</v>
+        <v>1.03106464852868</v>
       </c>
       <c r="N11">
-        <v>1.005711159799046</v>
+        <v>1.011735520840771</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.973769238648731</v>
+        <v>1.016068051154956</v>
       </c>
       <c r="D12">
-        <v>1.015296262038363</v>
+        <v>1.028257745324816</v>
       </c>
       <c r="E12">
-        <v>0.9854363502015706</v>
+        <v>1.017747576379306</v>
       </c>
       <c r="F12">
-        <v>0.9784190303648804</v>
+        <v>1.027205453200642</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037012581182534</v>
+        <v>1.031706419046319</v>
       </c>
       <c r="J12">
-        <v>1.004726767358971</v>
+        <v>1.022862502964752</v>
       </c>
       <c r="K12">
-        <v>1.030136162311648</v>
+        <v>1.031899153576529</v>
       </c>
       <c r="L12">
-        <v>1.00084798866966</v>
+        <v>1.021429593716022</v>
       </c>
       <c r="M12">
-        <v>0.9939717055168058</v>
+        <v>1.030850885761259</v>
       </c>
       <c r="N12">
-        <v>1.005526452491868</v>
+        <v>1.011698886838305</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9739940483871076</v>
+        <v>1.016110500816851</v>
       </c>
       <c r="D13">
-        <v>1.01541773902298</v>
+        <v>1.028281508337171</v>
       </c>
       <c r="E13">
-        <v>0.9856088453004499</v>
+        <v>1.017783199890988</v>
       </c>
       <c r="F13">
-        <v>0.9786944305682834</v>
+        <v>1.027261251066228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037067434312947</v>
+        <v>1.031714091600184</v>
       </c>
       <c r="J13">
-        <v>1.004844497838324</v>
+        <v>1.022885966613888</v>
       </c>
       <c r="K13">
-        <v>1.03021233988207</v>
+        <v>1.031913102628136</v>
       </c>
       <c r="L13">
-        <v>1.000972069657971</v>
+        <v>1.021455239185008</v>
       </c>
       <c r="M13">
-        <v>0.9941960705601552</v>
+        <v>1.030896735705145</v>
       </c>
       <c r="N13">
-        <v>1.005566165736334</v>
+        <v>1.011706745307164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9747287460911386</v>
+        <v>1.016249611095803</v>
       </c>
       <c r="D14">
-        <v>1.015814946493518</v>
+        <v>1.028359382656121</v>
       </c>
       <c r="E14">
-        <v>0.9861728208683335</v>
+        <v>1.01789995391804</v>
       </c>
       <c r="F14">
-        <v>0.9795944210849011</v>
+        <v>1.027444106909294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037246467731263</v>
+        <v>1.031739201635915</v>
       </c>
       <c r="J14">
-        <v>1.005229202853637</v>
+        <v>1.02296284674469</v>
       </c>
       <c r="K14">
-        <v>1.030461240450493</v>
+        <v>1.031958796879952</v>
       </c>
       <c r="L14">
-        <v>1.001377613182352</v>
+        <v>1.021539277360584</v>
       </c>
       <c r="M14">
-        <v>0.9949291863948709</v>
+        <v>1.03104697752784</v>
       </c>
       <c r="N14">
-        <v>1.005695933590452</v>
+        <v>1.01173249282152</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9751799669755353</v>
+        <v>1.016335337430696</v>
       </c>
       <c r="D15">
-        <v>1.01605905379498</v>
+        <v>1.028407373545258</v>
       </c>
       <c r="E15">
-        <v>0.9865193789217245</v>
+        <v>1.017971913582381</v>
       </c>
       <c r="F15">
-        <v>0.9801471278527893</v>
+        <v>1.027556793369339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037356244903686</v>
+        <v>1.031754650046736</v>
       </c>
       <c r="J15">
-        <v>1.005465435184979</v>
+        <v>1.023010214913775</v>
       </c>
       <c r="K15">
-        <v>1.030614062161991</v>
+        <v>1.031986942290273</v>
       </c>
       <c r="L15">
-        <v>1.001626708149455</v>
+        <v>1.021591062837954</v>
       </c>
       <c r="M15">
-        <v>0.9953793381319501</v>
+        <v>1.031139554934943</v>
       </c>
       <c r="N15">
-        <v>1.005775617266858</v>
+        <v>1.011748355680075</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9777845161864011</v>
+        <v>1.016834543380928</v>
       </c>
       <c r="D16">
-        <v>1.017470436309704</v>
+        <v>1.02868685180612</v>
       </c>
       <c r="E16">
-        <v>0.9885225984300173</v>
+        <v>1.01839110979328</v>
       </c>
       <c r="F16">
-        <v>0.9833370759029838</v>
+        <v>1.028213026791618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037987173638847</v>
+        <v>1.031844219213863</v>
       </c>
       <c r="J16">
-        <v>1.006828429971256</v>
+        <v>1.023285913988705</v>
       </c>
       <c r="K16">
-        <v>1.031495488819831</v>
+        <v>1.032150632745082</v>
       </c>
       <c r="L16">
-        <v>1.003064922469783</v>
+        <v>1.021892579331161</v>
       </c>
       <c r="M16">
-        <v>0.9979762619367635</v>
+        <v>1.031678523912676</v>
       </c>
       <c r="N16">
-        <v>1.006235341882163</v>
+        <v>1.011840668260047</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9793995451410868</v>
+        <v>1.017147893653193</v>
       </c>
       <c r="D17">
-        <v>1.018347584106682</v>
+        <v>1.028862292215279</v>
       </c>
       <c r="E17">
-        <v>0.9897671782219759</v>
+        <v>1.018654376024186</v>
       </c>
       <c r="F17">
-        <v>0.9853148064190754</v>
+        <v>1.028624971719452</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038375967975679</v>
+        <v>1.03190009720793</v>
       </c>
       <c r="J17">
-        <v>1.007673052772581</v>
+        <v>1.023458848190914</v>
       </c>
       <c r="K17">
-        <v>1.032041383791394</v>
+        <v>1.032253197774623</v>
       </c>
       <c r="L17">
-        <v>1.003957036706816</v>
+        <v>1.022081802032406</v>
       </c>
       <c r="M17">
-        <v>0.9995853146668492</v>
+        <v>1.032016717255478</v>
       </c>
       <c r="N17">
-        <v>1.006520197739604</v>
+        <v>1.011898558974198</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9803349746383188</v>
+        <v>1.017330741318874</v>
       </c>
       <c r="D18">
-        <v>1.018856312900851</v>
+        <v>1.028964670278932</v>
       </c>
       <c r="E18">
-        <v>0.9904888987158932</v>
+        <v>1.018808047907976</v>
       </c>
       <c r="F18">
-        <v>0.9864602311205376</v>
+        <v>1.028865362561679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038600269545747</v>
+        <v>1.031932579274369</v>
       </c>
       <c r="J18">
-        <v>1.008162056109404</v>
+        <v>1.023559715793945</v>
       </c>
       <c r="K18">
-        <v>1.032357310650128</v>
+        <v>1.032312980887833</v>
       </c>
       <c r="L18">
-        <v>1.00447385091264</v>
+        <v>1.022192204236256</v>
       </c>
       <c r="M18">
-        <v>1.00051684443445</v>
+        <v>1.032214019882796</v>
       </c>
       <c r="N18">
-        <v>1.006685107374588</v>
+        <v>1.011932320279345</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9806528292209526</v>
+        <v>1.017393100450115</v>
       </c>
       <c r="D19">
-        <v>1.019029289527317</v>
+        <v>1.028999586407438</v>
       </c>
       <c r="E19">
-        <v>0.9907342797133958</v>
+        <v>1.018860465187086</v>
       </c>
       <c r="F19">
-        <v>0.9868494291741984</v>
+        <v>1.02894734831146</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038676334049556</v>
+        <v>1.031943636036521</v>
       </c>
       <c r="J19">
-        <v>1.008328181591626</v>
+        <v>1.023594108668678</v>
       </c>
       <c r="K19">
-        <v>1.032464615695577</v>
+        <v>1.032333358338727</v>
       </c>
       <c r="L19">
-        <v>1.004649477722632</v>
+        <v>1.022229853890878</v>
       </c>
       <c r="M19">
-        <v>1.000833300564045</v>
+        <v>1.032281301764173</v>
       </c>
       <c r="N19">
-        <v>1.006741129000859</v>
+        <v>1.011943831088651</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9792269530012623</v>
+        <v>1.0171142662879</v>
       </c>
       <c r="D20">
-        <v>1.018253775162891</v>
+        <v>1.028843464281993</v>
       </c>
       <c r="E20">
-        <v>0.9896340854424408</v>
+        <v>1.018626118333307</v>
       </c>
       <c r="F20">
-        <v>0.9851034627811792</v>
+        <v>1.028580762507624</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038334510891383</v>
+        <v>1.031894113465491</v>
       </c>
       <c r="J20">
-        <v>1.007582812095653</v>
+        <v>1.023440294185672</v>
       </c>
       <c r="K20">
-        <v>1.031983072256351</v>
+        <v>1.032242197784636</v>
       </c>
       <c r="L20">
-        <v>1.003861689253936</v>
+        <v>1.022061496928672</v>
       </c>
       <c r="M20">
-        <v>0.9994134068812759</v>
+        <v>1.031980428148123</v>
       </c>
       <c r="N20">
-        <v>1.006489764430059</v>
+        <v>1.011892348400791</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9745126990953717</v>
+        <v>1.016208643270606</v>
       </c>
       <c r="D21">
-        <v>1.015698109357767</v>
+        <v>1.028336448533781</v>
       </c>
       <c r="E21">
-        <v>0.9860069375907068</v>
+        <v>1.01786556783606</v>
       </c>
       <c r="F21">
-        <v>0.979329774103845</v>
+        <v>1.027390255640316</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037193857736118</v>
+        <v>1.031731812086299</v>
       </c>
       <c r="J21">
-        <v>1.005116083341574</v>
+        <v>1.022940207505553</v>
       </c>
       <c r="K21">
-        <v>1.030388056940103</v>
+        <v>1.0319453427942</v>
       </c>
       <c r="L21">
-        <v>1.001258352378591</v>
+        <v>1.021514528796988</v>
       </c>
       <c r="M21">
-        <v>0.9947136250072439</v>
+        <v>1.031002733291228</v>
       </c>
       <c r="N21">
-        <v>1.005657776712704</v>
+        <v>1.011724911035114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9714857370934079</v>
+        <v>1.015639935159</v>
       </c>
       <c r="D22">
-        <v>1.014064083395472</v>
+        <v>1.028018100589021</v>
       </c>
       <c r="E22">
-        <v>0.9836862279926222</v>
+        <v>1.01738841095861</v>
       </c>
       <c r="F22">
-        <v>0.9756212935494951</v>
+        <v>1.026642737541165</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03645358222972</v>
+        <v>1.031628774629408</v>
       </c>
       <c r="J22">
-        <v>1.003530548170227</v>
+        <v>1.022625772799821</v>
       </c>
       <c r="K22">
-        <v>1.029361983521615</v>
+        <v>1.0317583338023</v>
       </c>
       <c r="L22">
-        <v>0.9995879424719762</v>
+        <v>1.021170923399884</v>
       </c>
       <c r="M22">
-        <v>0.9916916769270055</v>
+        <v>1.030388386387004</v>
       </c>
       <c r="N22">
-        <v>1.00512292396653</v>
+        <v>1.011619590999372</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9730965303694735</v>
+        <v>1.015941351885744</v>
       </c>
       <c r="D23">
-        <v>1.014932941766179</v>
+        <v>1.028186821197661</v>
       </c>
       <c r="E23">
-        <v>0.984920396080077</v>
+        <v>1.017641262496624</v>
       </c>
       <c r="F23">
-        <v>0.9775949011497175</v>
+        <v>1.027038915831171</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036848246257951</v>
+        <v>1.031683490561918</v>
       </c>
       <c r="J23">
-        <v>1.004374436759174</v>
+        <v>1.022792461201269</v>
       </c>
       <c r="K23">
-        <v>1.029908168095728</v>
+        <v>1.031857504973311</v>
       </c>
       <c r="L23">
-        <v>1.000476727076945</v>
+        <v>1.021353046723103</v>
       </c>
       <c r="M23">
-        <v>0.9933002178426122</v>
+        <v>1.03071402803199</v>
       </c>
       <c r="N23">
-        <v>1.005407601388392</v>
+        <v>1.011675427319494</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9793049602869798</v>
+        <v>1.017129460812919</v>
       </c>
       <c r="D24">
-        <v>1.018296172327539</v>
+        <v>1.028851971670743</v>
       </c>
       <c r="E24">
-        <v>0.9896942373655145</v>
+        <v>1.018638886418103</v>
       </c>
       <c r="F24">
-        <v>0.985198985015311</v>
+        <v>1.028600738406621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038353251205326</v>
+        <v>1.031896817603015</v>
       </c>
       <c r="J24">
-        <v>1.007623599237745</v>
+        <v>1.023448677948277</v>
       </c>
       <c r="K24">
-        <v>1.032009428398206</v>
+        <v>1.032247168334486</v>
       </c>
       <c r="L24">
-        <v>1.003904783588932</v>
+        <v>1.022070671832914</v>
       </c>
       <c r="M24">
-        <v>0.999491106211967</v>
+        <v>1.031996825509626</v>
       </c>
       <c r="N24">
-        <v>1.006503519764943</v>
+        <v>1.011895154708223</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9862525610599769</v>
+        <v>1.018511161197496</v>
       </c>
       <c r="D25">
-        <v>1.022085865758674</v>
+        <v>1.029625664648847</v>
       </c>
       <c r="E25">
-        <v>0.9950693475132723</v>
+        <v>1.019801005552053</v>
       </c>
       <c r="F25">
-        <v>0.9937054295514972</v>
+        <v>1.030417471231893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040002962532639</v>
+        <v>1.032140029932876</v>
       </c>
       <c r="J25">
-        <v>1.011251607071027</v>
+        <v>1.024210098851081</v>
       </c>
       <c r="K25">
-        <v>1.034350735540563</v>
+        <v>1.032697725385257</v>
       </c>
       <c r="L25">
-        <v>1.007744690790517</v>
+        <v>1.022904678858383</v>
       </c>
       <c r="M25">
-        <v>1.006402252902693</v>
+        <v>1.033487012912515</v>
       </c>
       <c r="N25">
-        <v>1.007726797367634</v>
+        <v>1.012149923993779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019615537826321</v>
+        <v>0.9916039057400095</v>
       </c>
       <c r="D2">
-        <v>1.030244161831632</v>
+        <v>1.025022531987173</v>
       </c>
       <c r="E2">
-        <v>1.02073141874446</v>
+        <v>0.9992341132956077</v>
       </c>
       <c r="F2">
-        <v>1.031869944366426</v>
+        <v>1.000257405534227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032330490091489</v>
+        <v>1.041244580753338</v>
       </c>
       <c r="J2">
-        <v>1.024817299578962</v>
+        <v>1.014038675790142</v>
       </c>
       <c r="K2">
-        <v>1.033055735294763</v>
+        <v>1.036143931729464</v>
       </c>
       <c r="L2">
-        <v>1.023570837009088</v>
+        <v>1.010704128458551</v>
       </c>
       <c r="M2">
-        <v>1.034676814831682</v>
+        <v>1.011713155452739</v>
       </c>
       <c r="N2">
-        <v>1.012352941027119</v>
+        <v>1.008666088354777</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020418741547745</v>
+        <v>0.9953870452257844</v>
       </c>
       <c r="D3">
-        <v>1.030694025018843</v>
+        <v>1.027107361204859</v>
       </c>
       <c r="E3">
-        <v>1.021408986067245</v>
+        <v>1.002191858413263</v>
       </c>
       <c r="F3">
-        <v>1.032926554786676</v>
+        <v>1.004890340648449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03246672452827</v>
+        <v>1.042104823731036</v>
       </c>
       <c r="J3">
-        <v>1.025258099855024</v>
+        <v>1.016004258889106</v>
       </c>
       <c r="K3">
-        <v>1.033314876543066</v>
+        <v>1.037404759960726</v>
       </c>
       <c r="L3">
-        <v>1.024055059310531</v>
+        <v>1.012796770614005</v>
       </c>
       <c r="M3">
-        <v>1.035541415050812</v>
+        <v>1.015461028736622</v>
       </c>
       <c r="N3">
-        <v>1.012500233965003</v>
+        <v>1.009328217787933</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020939073971036</v>
+        <v>0.99778999382917</v>
       </c>
       <c r="D4">
-        <v>1.030985466045683</v>
+        <v>1.02843517382303</v>
       </c>
       <c r="E4">
-        <v>1.021848334882879</v>
+        <v>1.004076525211968</v>
       </c>
       <c r="F4">
-        <v>1.033611166214083</v>
+        <v>1.007833839768209</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032553921726561</v>
+        <v>1.042642888861912</v>
       </c>
       <c r="J4">
-        <v>1.025543283017283</v>
+        <v>1.017250401235797</v>
       </c>
       <c r="K4">
-        <v>1.033482178482455</v>
+        <v>1.038202109282493</v>
       </c>
       <c r="L4">
-        <v>1.024368622493415</v>
+        <v>1.01412599790196</v>
       </c>
       <c r="M4">
-        <v>1.036101187076476</v>
+        <v>1.01783862784106</v>
       </c>
       <c r="N4">
-        <v>1.012595486470674</v>
+        <v>1.009747836783226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021157965242964</v>
+        <v>0.9987897573640147</v>
       </c>
       <c r="D5">
-        <v>1.031108069715108</v>
+        <v>1.028988412934889</v>
       </c>
       <c r="E5">
-        <v>1.022033255049133</v>
+        <v>1.004862055930982</v>
       </c>
       <c r="F5">
-        <v>1.033899194559104</v>
+        <v>1.009058735647932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03259035000628</v>
+        <v>1.042864720256708</v>
       </c>
       <c r="J5">
-        <v>1.025663162364387</v>
+        <v>1.017768283285296</v>
       </c>
       <c r="K5">
-        <v>1.033552420173679</v>
+        <v>1.038532967905952</v>
       </c>
       <c r="L5">
-        <v>1.024500500423476</v>
+        <v>1.01467901544442</v>
       </c>
       <c r="M5">
-        <v>1.036336590285594</v>
+        <v>1.0188271561376</v>
       </c>
       <c r="N5">
-        <v>1.012635516834974</v>
+        <v>1.009922184984772</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021194726422295</v>
+        <v>0.9989570195809084</v>
       </c>
       <c r="D6">
-        <v>1.031128660158618</v>
+        <v>1.029081015545392</v>
       </c>
       <c r="E6">
-        <v>1.022064316687998</v>
+        <v>1.004993558040138</v>
       </c>
       <c r="F6">
-        <v>1.033947568520677</v>
+        <v>1.00926367783471</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032596453002365</v>
+        <v>1.042901712494723</v>
       </c>
       <c r="J6">
-        <v>1.025683289918909</v>
+        <v>1.017854890904897</v>
       </c>
       <c r="K6">
-        <v>1.033564208632449</v>
+        <v>1.03858826786562</v>
       </c>
       <c r="L6">
-        <v>1.024522646554056</v>
+        <v>1.014771534542184</v>
       </c>
       <c r="M6">
-        <v>1.036376119890786</v>
+        <v>1.018992498753338</v>
       </c>
       <c r="N6">
-        <v>1.01264223728868</v>
+        <v>1.009951339523914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020941998244901</v>
+        <v>0.997803393290086</v>
       </c>
       <c r="D7">
-        <v>1.030987103962531</v>
+        <v>1.028442585636291</v>
       </c>
       <c r="E7">
-        <v>1.021850804941056</v>
+        <v>1.004087047898594</v>
       </c>
       <c r="F7">
-        <v>1.033615014008843</v>
+        <v>1.007850255619112</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032554409385304</v>
+        <v>1.042645870063041</v>
       </c>
       <c r="J7">
-        <v>1.025544884898156</v>
+        <v>1.017257344552697</v>
       </c>
       <c r="K7">
-        <v>1.033483117418458</v>
+        <v>1.038206547208758</v>
       </c>
       <c r="L7">
-        <v>1.024370384434417</v>
+        <v>1.014133409891125</v>
       </c>
       <c r="M7">
-        <v>1.036104332252091</v>
+        <v>1.017851879413929</v>
       </c>
       <c r="N7">
-        <v>1.01259602141306</v>
+        <v>1.009750174457144</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019886857904411</v>
+        <v>0.9928919591399484</v>
       </c>
       <c r="D8">
-        <v>1.030396121762669</v>
+        <v>1.025731566134218</v>
       </c>
       <c r="E8">
-        <v>1.020960214798792</v>
+        <v>1.000239867971243</v>
       </c>
       <c r="F8">
-        <v>1.032226840943467</v>
+        <v>1.001834654503549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032376728626752</v>
+        <v>1.041539194781078</v>
       </c>
       <c r="J8">
-        <v>1.024966278565028</v>
+        <v>1.014708379163788</v>
       </c>
       <c r="K8">
-        <v>1.033143391252603</v>
+        <v>1.036573912316812</v>
       </c>
       <c r="L8">
-        <v>1.023734431974528</v>
+        <v>1.011416591072663</v>
       </c>
       <c r="M8">
-        <v>1.034968944074454</v>
+        <v>1.012989831448124</v>
       </c>
       <c r="N8">
-        <v>1.012402730686257</v>
+        <v>1.008891717412291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018032274231474</v>
+        <v>0.9838769082789032</v>
       </c>
       <c r="D9">
-        <v>1.029357491519772</v>
+        <v>1.020787029076909</v>
       </c>
       <c r="E9">
-        <v>1.019397983538111</v>
+        <v>0.9932273979464745</v>
       </c>
       <c r="F9">
-        <v>1.029787748963793</v>
+        <v>0.9907969067177821</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032056342581662</v>
+        <v>1.039443344861187</v>
       </c>
       <c r="J9">
-        <v>1.023946411150804</v>
+        <v>1.0100121493395</v>
       </c>
       <c r="K9">
-        <v>1.032541891369779</v>
+        <v>1.033551619395753</v>
       </c>
       <c r="L9">
-        <v>1.022615687678885</v>
+        <v>1.00643131998158</v>
       </c>
       <c r="M9">
-        <v>1.032970725972796</v>
+        <v>1.004041083544689</v>
       </c>
       <c r="N9">
-        <v>1.01206171802566</v>
+        <v>1.007308944583057</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016799142070423</v>
+        <v>0.9776010991424658</v>
       </c>
       <c r="D10">
-        <v>1.028667031705742</v>
+        <v>1.017370914685335</v>
       </c>
       <c r="E10">
-        <v>1.018361373525942</v>
+        <v>0.9883813706836131</v>
       </c>
       <c r="F10">
-        <v>1.028166488002801</v>
+        <v>0.9831124543612153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031837889509978</v>
+        <v>1.037942898565438</v>
       </c>
       <c r="J10">
-        <v>1.0232663705159</v>
+        <v>1.006732479883731</v>
       </c>
       <c r="K10">
-        <v>1.032139036343794</v>
+        <v>1.031433458521235</v>
       </c>
       <c r="L10">
-        <v>1.021871199677545</v>
+        <v>1.00296362034728</v>
       </c>
       <c r="M10">
-        <v>1.03164031026892</v>
+        <v>0.9977934631216357</v>
       </c>
       <c r="N10">
-        <v>1.011834125335449</v>
+        <v>1.006202980553719</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016265973901493</v>
+        <v>0.9748149619535622</v>
       </c>
       <c r="D11">
-        <v>1.028368542739083</v>
+        <v>1.015861579338006</v>
       </c>
       <c r="E11">
-        <v>1.017913688436188</v>
+        <v>0.9862390275027122</v>
       </c>
       <c r="F11">
-        <v>1.027465615542395</v>
+        <v>0.979700029830514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031742151822812</v>
+        <v>1.037267453645303</v>
       </c>
       <c r="J11">
-        <v>1.022971888560029</v>
+        <v>1.005274342570942</v>
       </c>
       <c r="K11">
-        <v>1.031964169866265</v>
+        <v>1.030490443025047</v>
       </c>
       <c r="L11">
-        <v>1.021549161954295</v>
+        <v>1.001425206790082</v>
       </c>
       <c r="M11">
-        <v>1.03106464852868</v>
+        <v>0.995015203715488</v>
       </c>
       <c r="N11">
-        <v>1.011735520840771</v>
+        <v>1.005711159799045</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016068051154956</v>
+        <v>0.97376923864873</v>
       </c>
       <c r="D12">
-        <v>1.028257745324816</v>
+        <v>1.015296262038363</v>
       </c>
       <c r="E12">
-        <v>1.017747576379306</v>
+        <v>0.9854363502015691</v>
       </c>
       <c r="F12">
-        <v>1.027205453200642</v>
+        <v>0.9784190303648794</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031706419046319</v>
+        <v>1.037012581182533</v>
       </c>
       <c r="J12">
-        <v>1.022862502964752</v>
+        <v>1.004726767358969</v>
       </c>
       <c r="K12">
-        <v>1.031899153576529</v>
+        <v>1.030136162311647</v>
       </c>
       <c r="L12">
-        <v>1.021429593716022</v>
+        <v>1.000847988669658</v>
       </c>
       <c r="M12">
-        <v>1.030850885761259</v>
+        <v>0.993971705516805</v>
       </c>
       <c r="N12">
-        <v>1.011698886838305</v>
+        <v>1.005526452491868</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016110500816851</v>
+        <v>0.9739940483871069</v>
       </c>
       <c r="D13">
-        <v>1.028281508337171</v>
+        <v>1.01541773902298</v>
       </c>
       <c r="E13">
-        <v>1.017783199890988</v>
+        <v>0.9856088453004492</v>
       </c>
       <c r="F13">
-        <v>1.027261251066228</v>
+        <v>0.9786944305682829</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031714091600184</v>
+        <v>1.037067434312947</v>
       </c>
       <c r="J13">
-        <v>1.022885966613888</v>
+        <v>1.004844497838323</v>
       </c>
       <c r="K13">
-        <v>1.031913102628136</v>
+        <v>1.03021233988207</v>
       </c>
       <c r="L13">
-        <v>1.021455239185008</v>
+        <v>1.00097206965797</v>
       </c>
       <c r="M13">
-        <v>1.030896735705145</v>
+        <v>0.9941960705601548</v>
       </c>
       <c r="N13">
-        <v>1.011706745307164</v>
+        <v>1.005566165736333</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016249611095803</v>
+        <v>0.9747287460911379</v>
       </c>
       <c r="D14">
-        <v>1.028359382656121</v>
+        <v>1.015814946493518</v>
       </c>
       <c r="E14">
-        <v>1.01789995391804</v>
+        <v>0.9861728208683328</v>
       </c>
       <c r="F14">
-        <v>1.027444106909294</v>
+        <v>0.9795944210849009</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031739201635915</v>
+        <v>1.037246467731262</v>
       </c>
       <c r="J14">
-        <v>1.02296284674469</v>
+        <v>1.005229202853636</v>
       </c>
       <c r="K14">
-        <v>1.031958796879952</v>
+        <v>1.030461240450493</v>
       </c>
       <c r="L14">
-        <v>1.021539277360584</v>
+        <v>1.001377613182351</v>
       </c>
       <c r="M14">
-        <v>1.03104697752784</v>
+        <v>0.9949291863948706</v>
       </c>
       <c r="N14">
-        <v>1.01173249282152</v>
+        <v>1.005695933590452</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016335337430696</v>
+        <v>0.975179966975535</v>
       </c>
       <c r="D15">
-        <v>1.028407373545258</v>
+        <v>1.01605905379498</v>
       </c>
       <c r="E15">
-        <v>1.017971913582381</v>
+        <v>0.9865193789217244</v>
       </c>
       <c r="F15">
-        <v>1.027556793369339</v>
+        <v>0.9801471278527895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031754650046736</v>
+        <v>1.037356244903686</v>
       </c>
       <c r="J15">
-        <v>1.023010214913775</v>
+        <v>1.005465435184979</v>
       </c>
       <c r="K15">
-        <v>1.031986942290273</v>
+        <v>1.030614062161991</v>
       </c>
       <c r="L15">
-        <v>1.021591062837954</v>
+        <v>1.001626708149454</v>
       </c>
       <c r="M15">
-        <v>1.031139554934943</v>
+        <v>0.9953793381319502</v>
       </c>
       <c r="N15">
-        <v>1.011748355680075</v>
+        <v>1.005775617266858</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016834543380928</v>
+        <v>0.9777845161864009</v>
       </c>
       <c r="D16">
-        <v>1.02868685180612</v>
+        <v>1.017470436309704</v>
       </c>
       <c r="E16">
-        <v>1.01839110979328</v>
+        <v>0.9885225984300171</v>
       </c>
       <c r="F16">
-        <v>1.028213026791618</v>
+        <v>0.9833370759029834</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031844219213863</v>
+        <v>1.037987173638847</v>
       </c>
       <c r="J16">
-        <v>1.023285913988705</v>
+        <v>1.006828429971256</v>
       </c>
       <c r="K16">
-        <v>1.032150632745082</v>
+        <v>1.031495488819831</v>
       </c>
       <c r="L16">
-        <v>1.021892579331161</v>
+        <v>1.003064922469783</v>
       </c>
       <c r="M16">
-        <v>1.031678523912676</v>
+        <v>0.9979762619367631</v>
       </c>
       <c r="N16">
-        <v>1.011840668260047</v>
+        <v>1.006235341882163</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017147893653193</v>
+        <v>0.9793995451410857</v>
       </c>
       <c r="D17">
-        <v>1.028862292215279</v>
+        <v>1.018347584106682</v>
       </c>
       <c r="E17">
-        <v>1.018654376024186</v>
+        <v>0.9897671782219747</v>
       </c>
       <c r="F17">
-        <v>1.028624971719452</v>
+        <v>0.9853148064190742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03190009720793</v>
+        <v>1.038375967975679</v>
       </c>
       <c r="J17">
-        <v>1.023458848190914</v>
+        <v>1.00767305277258</v>
       </c>
       <c r="K17">
-        <v>1.032253197774623</v>
+        <v>1.032041383791393</v>
       </c>
       <c r="L17">
-        <v>1.022081802032406</v>
+        <v>1.003957036706815</v>
       </c>
       <c r="M17">
-        <v>1.032016717255478</v>
+        <v>0.999585314666848</v>
       </c>
       <c r="N17">
-        <v>1.011898558974198</v>
+        <v>1.006520197739603</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017330741318874</v>
+        <v>0.9803349746383193</v>
       </c>
       <c r="D18">
-        <v>1.028964670278932</v>
+        <v>1.018856312900852</v>
       </c>
       <c r="E18">
-        <v>1.018808047907976</v>
+        <v>0.9904888987158937</v>
       </c>
       <c r="F18">
-        <v>1.028865362561679</v>
+        <v>0.9864602311205383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031932579274369</v>
+        <v>1.038600269545748</v>
       </c>
       <c r="J18">
-        <v>1.023559715793945</v>
+        <v>1.008162056109405</v>
       </c>
       <c r="K18">
-        <v>1.032312980887833</v>
+        <v>1.032357310650128</v>
       </c>
       <c r="L18">
-        <v>1.022192204236256</v>
+        <v>1.004473850912641</v>
       </c>
       <c r="M18">
-        <v>1.032214019882796</v>
+        <v>1.000516844434451</v>
       </c>
       <c r="N18">
-        <v>1.011932320279345</v>
+        <v>1.006685107374588</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017393100450115</v>
+        <v>0.9806528292209515</v>
       </c>
       <c r="D19">
-        <v>1.028999586407438</v>
+        <v>1.019029289527316</v>
       </c>
       <c r="E19">
-        <v>1.018860465187086</v>
+        <v>0.9907342797133949</v>
       </c>
       <c r="F19">
-        <v>1.02894734831146</v>
+        <v>0.9868494291741973</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031943636036521</v>
+        <v>1.038676334049556</v>
       </c>
       <c r="J19">
-        <v>1.023594108668678</v>
+        <v>1.008328181591625</v>
       </c>
       <c r="K19">
-        <v>1.032333358338727</v>
+        <v>1.032464615695577</v>
       </c>
       <c r="L19">
-        <v>1.022229853890878</v>
+        <v>1.004649477722631</v>
       </c>
       <c r="M19">
-        <v>1.032281301764173</v>
+        <v>1.000833300564044</v>
       </c>
       <c r="N19">
-        <v>1.011943831088651</v>
+        <v>1.006741129000858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0171142662879</v>
+        <v>0.9792269530012616</v>
       </c>
       <c r="D20">
-        <v>1.028843464281993</v>
+        <v>1.018253775162891</v>
       </c>
       <c r="E20">
-        <v>1.018626118333307</v>
+        <v>0.9896340854424399</v>
       </c>
       <c r="F20">
-        <v>1.028580762507624</v>
+        <v>0.9851034627811787</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031894113465491</v>
+        <v>1.038334510891383</v>
       </c>
       <c r="J20">
-        <v>1.023440294185672</v>
+        <v>1.007582812095653</v>
       </c>
       <c r="K20">
-        <v>1.032242197784636</v>
+        <v>1.031983072256352</v>
       </c>
       <c r="L20">
-        <v>1.022061496928672</v>
+        <v>1.003861689253936</v>
       </c>
       <c r="M20">
-        <v>1.031980428148123</v>
+        <v>0.9994134068812754</v>
       </c>
       <c r="N20">
-        <v>1.011892348400791</v>
+        <v>1.006489764430059</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016208643270606</v>
+        <v>0.9745126990953713</v>
       </c>
       <c r="D21">
-        <v>1.028336448533781</v>
+        <v>1.015698109357766</v>
       </c>
       <c r="E21">
-        <v>1.01786556783606</v>
+        <v>0.9860069375907061</v>
       </c>
       <c r="F21">
-        <v>1.027390255640316</v>
+        <v>0.9793297741038449</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031731812086299</v>
+        <v>1.037193857736118</v>
       </c>
       <c r="J21">
-        <v>1.022940207505553</v>
+        <v>1.005116083341573</v>
       </c>
       <c r="K21">
-        <v>1.0319453427942</v>
+        <v>1.030388056940103</v>
       </c>
       <c r="L21">
-        <v>1.021514528796988</v>
+        <v>1.00125835237859</v>
       </c>
       <c r="M21">
-        <v>1.031002733291228</v>
+        <v>0.9947136250072436</v>
       </c>
       <c r="N21">
-        <v>1.011724911035114</v>
+        <v>1.005657776712704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015639935159</v>
+        <v>0.9714857370934081</v>
       </c>
       <c r="D22">
-        <v>1.028018100589021</v>
+        <v>1.014064083395473</v>
       </c>
       <c r="E22">
-        <v>1.01738841095861</v>
+        <v>0.9836862279926223</v>
       </c>
       <c r="F22">
-        <v>1.026642737541165</v>
+        <v>0.9756212935494959</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031628774629408</v>
+        <v>1.036453582229721</v>
       </c>
       <c r="J22">
-        <v>1.022625772799821</v>
+        <v>1.003530548170227</v>
       </c>
       <c r="K22">
-        <v>1.0317583338023</v>
+        <v>1.029361983521616</v>
       </c>
       <c r="L22">
-        <v>1.021170923399884</v>
+        <v>0.9995879424719762</v>
       </c>
       <c r="M22">
-        <v>1.030388386387004</v>
+        <v>0.991691676927006</v>
       </c>
       <c r="N22">
-        <v>1.011619590999372</v>
+        <v>1.00512292396653</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015941351885744</v>
+        <v>0.9730965303694729</v>
       </c>
       <c r="D23">
-        <v>1.028186821197661</v>
+        <v>1.014932941766178</v>
       </c>
       <c r="E23">
-        <v>1.017641262496624</v>
+        <v>0.9849203960800765</v>
       </c>
       <c r="F23">
-        <v>1.027038915831171</v>
+        <v>0.9775949011497171</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031683490561918</v>
+        <v>1.036848246257951</v>
       </c>
       <c r="J23">
-        <v>1.022792461201269</v>
+        <v>1.004374436759174</v>
       </c>
       <c r="K23">
-        <v>1.031857504973311</v>
+        <v>1.029908168095727</v>
       </c>
       <c r="L23">
-        <v>1.021353046723103</v>
+        <v>1.000476727076945</v>
       </c>
       <c r="M23">
-        <v>1.03071402803199</v>
+        <v>0.9933002178426117</v>
       </c>
       <c r="N23">
-        <v>1.011675427319494</v>
+        <v>1.005407601388392</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017129460812919</v>
+        <v>0.9793049602869793</v>
       </c>
       <c r="D24">
-        <v>1.028851971670743</v>
+        <v>1.018296172327539</v>
       </c>
       <c r="E24">
-        <v>1.018638886418103</v>
+        <v>0.9896942373655142</v>
       </c>
       <c r="F24">
-        <v>1.028600738406621</v>
+        <v>0.9851989850153107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031896817603015</v>
+        <v>1.038353251205326</v>
       </c>
       <c r="J24">
-        <v>1.023448677948277</v>
+        <v>1.007623599237744</v>
       </c>
       <c r="K24">
-        <v>1.032247168334486</v>
+        <v>1.032009428398206</v>
       </c>
       <c r="L24">
-        <v>1.022070671832914</v>
+        <v>1.003904783588931</v>
       </c>
       <c r="M24">
-        <v>1.031996825509626</v>
+        <v>0.9994911062119667</v>
       </c>
       <c r="N24">
-        <v>1.011895154708223</v>
+        <v>1.006503519764943</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018511161197496</v>
+        <v>0.9862525610599756</v>
       </c>
       <c r="D25">
-        <v>1.029625664648847</v>
+        <v>1.022085865758673</v>
       </c>
       <c r="E25">
-        <v>1.019801005552053</v>
+        <v>0.995069347513271</v>
       </c>
       <c r="F25">
-        <v>1.030417471231893</v>
+        <v>0.9937054295514958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032140029932876</v>
+        <v>1.040002962532638</v>
       </c>
       <c r="J25">
-        <v>1.024210098851081</v>
+        <v>1.011251607071026</v>
       </c>
       <c r="K25">
-        <v>1.032697725385257</v>
+        <v>1.034350735540563</v>
       </c>
       <c r="L25">
-        <v>1.022904678858383</v>
+        <v>1.007744690790516</v>
       </c>
       <c r="M25">
-        <v>1.033487012912515</v>
+        <v>1.006402252902691</v>
       </c>
       <c r="N25">
-        <v>1.012149923993779</v>
+        <v>1.007726797367634</v>
       </c>
     </row>
   </sheetData>
